--- a/ClinicalAthletes/ExcelFiles/ImportTemplate.xlsx
+++ b/ClinicalAthletes/ExcelFiles/ImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravia\Desktop\Desk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Bilateral Leg Move 1</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -531,6 +531,9 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
       <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
